--- a/SEOLinks.xlsx
+++ b/SEOLinks.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VILLOSA\Documents\GithubClassic\SEO2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{425CCDA8-FD89-47F4-A066-0D9D5AFBF9DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3AE2010D-D8FD-4D26-B5D1-9B8F2E1942DA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8850" windowHeight="4965" firstSheet="5" activeTab="6" xr2:uid="{9CDEBFF6-07C8-4F92-80C9-4A5467FBFD28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8850" windowHeight="4965" xr2:uid="{9CDEBFF6-07C8-4F92-80C9-4A5467FBFD28}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet7" sheetId="7" r:id="rId1"/>
+    <sheet name="Main" sheetId="7" r:id="rId1"/>
     <sheet name="Blog commenting" sheetId="1" r:id="rId2"/>
     <sheet name="Social Bookmarking" sheetId="2" r:id="rId3"/>
     <sheet name="Directory Submission" sheetId="3" r:id="rId4"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="119">
   <si>
     <t>https://www.reddit.com</t>
   </si>
@@ -310,13 +310,91 @@
   </si>
   <si>
     <t>https://www.yalwa.ph</t>
+  </si>
+  <si>
+    <t>https://www.pinoyadventurista.com/2018/04/family-vacation-on-board-starcruises-superstar-virgo.html</t>
+  </si>
+  <si>
+    <t>https://www.pinoyadventurista.com</t>
+  </si>
+  <si>
+    <t>unkown</t>
+  </si>
+  <si>
+    <t>https://www.rappler.com/life-and-style/travel/201040-japan-plans-studio-ghibli-park</t>
+  </si>
+  <si>
+    <t>https://www.rappler.com</t>
+  </si>
+  <si>
+    <t>https://theplanetd.com/visit-the-philippines-10-reasons-why-this-should-be-your-next-destination/#comment-497562</t>
+  </si>
+  <si>
+    <t>https://theplanetd.com</t>
+  </si>
+  <si>
+    <t>www.myspace.com</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/pin/794955771699643097/</t>
+  </si>
+  <si>
+    <t>google account</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/pin/794955771699643113/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.com/pin/794955771699643103/</t>
+  </si>
+  <si>
+    <t>http://actweb-sport.com/user/realbreezeagent/</t>
+  </si>
+  <si>
+    <t>http://actweb-sport.com/</t>
+  </si>
+  <si>
+    <t>Realbreeze Travels and Tours</t>
+  </si>
+  <si>
+    <t>DavaoITSolutions</t>
+  </si>
+  <si>
+    <t>davao affordable tour packages</t>
+  </si>
+  <si>
+    <t>davao budget tour packages</t>
+  </si>
+  <si>
+    <t>davao family tour packages</t>
+  </si>
+  <si>
+    <t>davao samal tour packages</t>
+  </si>
+  <si>
+    <t>davao flexible tour packages</t>
+  </si>
+  <si>
+    <t>Destinations</t>
+  </si>
+  <si>
+    <t>Exclusive Transportation</t>
+  </si>
+  <si>
+    <t>Samal Island Hopping</t>
+  </si>
+  <si>
+    <t>Out of Town Tour Packages</t>
+  </si>
+  <si>
+    <t>Airlines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,7 +412,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -376,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -385,10 +485,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -704,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A335A3-804B-4387-93F0-8A857100E273}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,203 +820,384 @@
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="7">
-        <v>43213</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="7">
-        <v>43213</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="7">
-        <v>43213</v>
-      </c>
-      <c r="C5">
+      <c r="B6" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C6">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="D6" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="7">
-        <v>43213</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7">
-        <v>43213</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="7">
-        <v>43213</v>
-      </c>
-      <c r="C8">
+      <c r="B9" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C9">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="7">
-        <v>43213</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="7">
-        <v>43213</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="7">
-        <v>43213</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="6">
+        <v>43213</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6">
+        <v>43213</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B21" s="6">
         <v>43215</v>
       </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B22" s="6">
         <v>43215</v>
       </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B23" s="6">
         <v>43215</v>
       </c>
-      <c r="C15">
+      <c r="C23">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B24" s="6">
         <v>43215</v>
       </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B25" s="6">
         <v>43215</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B26" s="6">
         <v>43215</v>
       </c>
-      <c r="C18" t="s">
-        <v>50</v>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{E247F814-D2AB-48A5-B224-2E2E9C15B925}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E247F814-D2AB-48A5-B224-2E2E9C15B925}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF83D59-13DC-4BBE-9097-E4641B82696E}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,22 +1277,73 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://l.facebook.com/l.php?u=http%3A%2F%2Frealbreezedavaotours.com%2Faffordable-tour-packages%2F&amp;h=ATN9xMlEhpgu6BwQrY3sd1FxntOR_UGRBeOcLkYpRsKKShaMVmzLITgRpIm-SiltAwtfWcLSdXQWBTccWWPbBAy2HYfMAY4IJvSzf-q7AvQ7stQbR7gj" xr:uid="{B65F3201-C87B-4536-ABAC-97B1C65C66B3}"/>
     <hyperlink ref="A6" r:id="rId2" xr:uid="{07DDB084-D739-4C71-B14C-727A5DA796B2}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{0DBC04D1-FC04-4BE1-B0FF-5F9B95A6EA08}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{4BFD0C87-9751-465B-BFBF-FB131B4B67FB}"/>
+    <hyperlink ref="E13" r:id="rId5" location="comment-497562" xr:uid="{728645A5-BD0A-4B12-A3AD-9E62D139E829}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58C1BFE-8B7E-4B0E-8C19-8DEC33D6F076}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="A41:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1405,7 @@
       <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>43214</v>
       </c>
       <c r="F6" t="s">
@@ -1088,7 +1425,7 @@
       <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>43214</v>
       </c>
       <c r="F7" t="s">
@@ -1108,7 +1445,7 @@
       <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>43214</v>
       </c>
     </row>
@@ -1125,7 +1462,7 @@
       <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>43214</v>
       </c>
       <c r="F9" t="s">
@@ -1145,7 +1482,7 @@
       <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>43214</v>
       </c>
       <c r="F10" t="s">
@@ -1165,7 +1502,7 @@
       <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>43215</v>
       </c>
     </row>
@@ -1182,7 +1519,7 @@
       <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>43215</v>
       </c>
     </row>
@@ -1199,7 +1536,7 @@
       <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>43215</v>
       </c>
     </row>
@@ -1216,7 +1553,7 @@
       <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>43215</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1236,7 +1573,7 @@
       <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>43215</v>
       </c>
     </row>
@@ -1291,7 +1628,7 @@
       <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>43214</v>
       </c>
     </row>
@@ -1308,7 +1645,7 @@
       <c r="D24" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>43214</v>
       </c>
     </row>
@@ -1325,7 +1662,7 @@
       <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>43214</v>
       </c>
     </row>
@@ -1342,7 +1679,7 @@
       <c r="D26" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>43214</v>
       </c>
     </row>
@@ -1359,12 +1696,12 @@
       <c r="D27" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>43214</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B28" t="s">
@@ -1376,7 +1713,7 @@
       <c r="D28" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>43215</v>
       </c>
     </row>
@@ -1393,7 +1730,7 @@
       <c r="D29" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>43215</v>
       </c>
     </row>
@@ -1410,7 +1747,7 @@
       <c r="D30" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>43215</v>
       </c>
       <c r="F30" s="2"/>
@@ -1428,7 +1765,7 @@
       <c r="D31" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>43215</v>
       </c>
     </row>
@@ -1438,6 +1775,105 @@
       </c>
       <c r="D32" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="6">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="6">
+        <v>43216</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="6">
+        <v>43216</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="6">
+        <v>43216</v>
+      </c>
+      <c r="F36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="6">
+        <v>43216</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1453,6 +1889,8 @@
     <hyperlink ref="A26" r:id="rId9" xr:uid="{D5625D52-2231-418F-8EA6-A22575FF2297}"/>
     <hyperlink ref="A27" r:id="rId10" display="http://www.tumblr.com/" xr:uid="{217F5BB7-6300-4820-8CDC-FCAE1C97A35D}"/>
     <hyperlink ref="A28" r:id="rId11" xr:uid="{6EC0963D-A2C9-4EA4-A58C-D0AE30885580}"/>
+    <hyperlink ref="A33" r:id="rId12" display="http://www.myspace.com/" xr:uid="{EAB9247D-2F55-4CD2-984F-AFF842B14BAA}"/>
+    <hyperlink ref="F37" r:id="rId13" xr:uid="{561BD091-1CD9-4A39-919D-90852E622D11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1462,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45899987-1474-48E1-AA78-DE422EC9A712}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,7 +2288,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +2359,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5E3DF3-E369-45D8-97CF-629AEB6449C1}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
